--- a/data/expt_2/raw_transcripts/game60.xlsx
+++ b/data/expt_2/raw_transcripts/game60.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="221">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t xml:space="preserve">Awwww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, no, you want to give [id109] a chance to help you guess which one.</t>
@@ -807,12 +804,12 @@
   <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F241" activeCellId="0" sqref="F241"/>
+      <selection pane="bottomLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.25"/>
@@ -3241,9 +3238,7 @@
         <v>110</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="H163" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="H163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
@@ -3253,7 +3248,7 @@
         <v>431420</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
@@ -3267,7 +3262,7 @@
         <v>436420</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>11</v>
@@ -3281,7 +3276,7 @@
         <v>437420</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>11</v>
@@ -3298,7 +3293,7 @@
         <v>440420</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
@@ -3330,7 +3325,7 @@
         <v>443420</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
@@ -3344,7 +3339,7 @@
         <v>445420</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
@@ -3375,7 +3370,7 @@
         <v>450420</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>18</v>
@@ -3392,7 +3387,7 @@
         <v>454420</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -3406,7 +3401,7 @@
         <v>456420</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>18</v>
@@ -3415,7 +3410,7 @@
         <v>83</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,7 +3421,7 @@
         <v>456420</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>9</v>
@@ -3443,7 +3438,7 @@
         <v>462420</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>11</v>
@@ -3457,7 +3452,7 @@
         <v>466420</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>9</v>
@@ -3474,7 +3469,7 @@
         <v>467420</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
@@ -3488,7 +3483,7 @@
         <v>470420</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>18</v>
@@ -3505,7 +3500,7 @@
         <v>471420</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
@@ -3536,7 +3531,7 @@
         <v>473420</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>18</v>
@@ -3553,15 +3548,13 @@
         <v>473420</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="H183" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="H183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
@@ -3571,7 +3564,7 @@
         <v>481420</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
@@ -3588,7 +3581,7 @@
         <v>482420</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>11</v>
@@ -3602,7 +3595,7 @@
         <v>483420</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>18</v>
@@ -3616,7 +3609,7 @@
         <v>484420</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>9</v>
@@ -3648,7 +3641,7 @@
         <v>488420</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>11</v>
@@ -3680,7 +3673,7 @@
         <v>491420</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>18</v>
@@ -3689,7 +3682,7 @@
         <v>83</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,7 +3721,7 @@
         <v>498420</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
@@ -3745,7 +3738,7 @@
         <v>499420</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>9</v>
@@ -3754,7 +3747,7 @@
         <v>83</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3772,7 @@
         <v>504420</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>110</v>
@@ -3824,7 +3817,7 @@
         <v>512420</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>18</v>
@@ -3844,7 +3837,7 @@
         <v>514420</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>18</v>
@@ -3853,7 +3846,7 @@
         <v>83</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3857,7 @@
         <v>515420</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>110</v>
@@ -3878,7 +3871,7 @@
         <v>520420</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>11</v>
@@ -3895,7 +3888,7 @@
         <v>522420</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>9</v>
@@ -3909,7 +3902,7 @@
         <v>524420</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>11</v>
@@ -3923,7 +3916,7 @@
         <v>526420</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>11</v>
@@ -3937,7 +3930,7 @@
         <v>528420</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>9</v>
@@ -3951,7 +3944,7 @@
         <v>532420</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>9</v>
@@ -3965,7 +3958,7 @@
         <v>536420</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
@@ -3980,7 +3973,7 @@
         <v>538420</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>9</v>
@@ -3989,7 +3982,7 @@
         <v>83</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,7 +4021,7 @@
         <v>544420</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>18</v>
@@ -4062,7 +4055,7 @@
         <v>546420</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>18</v>
@@ -4076,7 +4069,7 @@
         <v>551420</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>18</v>
@@ -4094,7 +4087,7 @@
         <v>554420</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>18</v>
@@ -4103,7 +4096,7 @@
         <v>83</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4107,7 @@
         <v>557420</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>18</v>
@@ -4145,7 +4138,7 @@
         <v>559420</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>18</v>
@@ -4162,7 +4155,7 @@
         <v>560420</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>11</v>
@@ -4179,7 +4172,7 @@
         <v>567420</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>11</v>
@@ -4194,7 +4187,7 @@
         <v>569420</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>9</v>
@@ -4203,7 +4196,7 @@
         <v>83</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,7 +4207,7 @@
         <v>570420</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>110</v>
@@ -4228,7 +4221,7 @@
         <v>574420</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>9</v>
@@ -4242,7 +4235,7 @@
         <v>576420</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>11</v>
@@ -4259,7 +4252,7 @@
         <v>582420</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>11</v>
@@ -4274,7 +4267,7 @@
         <v>584420</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>18</v>
@@ -4284,7 +4277,7 @@
         <v>83</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,7 +4288,7 @@
         <v>591420</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>18</v>
@@ -4312,7 +4305,7 @@
         <v>594420</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>18</v>
@@ -4329,7 +4322,7 @@
         <v>600420</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>11</v>
@@ -4346,7 +4339,7 @@
         <v>602420</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>9</v>
@@ -4355,7 +4348,7 @@
         <v>83</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +4359,7 @@
         <v>602420</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>110</v>
@@ -4398,7 +4391,7 @@
         <v>609420</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>11</v>
@@ -4426,7 +4419,7 @@
         <v>615420</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>18</v>
@@ -4440,7 +4433,7 @@
         <v>618420</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>11</v>
@@ -4455,7 +4448,7 @@
         <v>621420</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>18</v>
@@ -4465,7 +4458,7 @@
         <v>83</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4500,7 @@
         <v>630420</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>11</v>
@@ -4522,7 +4515,7 @@
         <v>631420</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>9</v>
@@ -4531,7 +4524,7 @@
         <v>83</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4535,7 @@
         <v>633420</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>110</v>
@@ -4556,7 +4549,7 @@
         <v>637420</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>11</v>
@@ -4570,7 +4563,7 @@
         <v>647420</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>18</v>
@@ -4582,7 +4575,7 @@
         <v>83</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4617,7 @@
         <v>658420</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>11</v>
@@ -4639,7 +4632,7 @@
         <v>660420</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>9</v>
@@ -4648,7 +4641,7 @@
         <v>83</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,7 +4652,7 @@
         <v>667420</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>18</v>
@@ -4676,7 +4669,7 @@
         <v>671420</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>18</v>
@@ -4688,7 +4681,7 @@
         <v>83</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4706,7 @@
         <v>676420</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>18</v>
@@ -4730,7 +4723,7 @@
         <v>679420</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>11</v>
@@ -4744,7 +4737,7 @@
         <v>680420</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>11</v>
@@ -4758,7 +4751,7 @@
         <v>683420</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>11</v>
@@ -4772,7 +4765,7 @@
         <v>687420</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>11</v>
@@ -4800,7 +4793,7 @@
         <v>690420</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>11</v>
@@ -4814,7 +4807,7 @@
         <v>697420</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>11</v>
@@ -4828,7 +4821,7 @@
         <v>698420</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>11</v>

--- a/data/expt_2/raw_transcripts/game60.xlsx
+++ b/data/expt_2/raw_transcripts/game60.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="game60.csv" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="game60.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -430,7 +430,7 @@
     <t xml:space="preserve"> So I press this?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oh, no, it's Juliet's turn to press.</t>
+    <t xml:space="preserve"> Oh, no, it's [id108]'s turn to press.</t>
   </si>
   <si>
     <t xml:space="preserve">She's the guesser.</t>
@@ -771,16 +771,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,4034 +800,4140 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
+      <selection pane="bottomLeft" activeCell="E258" activeCellId="0" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>18000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>18000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>23000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>28000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>29000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>29000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>30000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>42000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>42000</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>53000</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>53000</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>55000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>55000</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>57000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>57000</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>58000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>58000</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>60000</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>62000</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>62000</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>63000</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>63000</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>64000</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>64000</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>65000</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>65000</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>66000</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>66000</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>67000</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>67000</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>72000</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>72000</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>74000</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>74000</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>77000</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>77000</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>84000</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>84000</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>86000</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>86000</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>88000</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>88000</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>89000</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>89000</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>90000</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>90000</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>93000</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>93000</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>96000</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>96000</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>101000</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>101000</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>106000</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>106000</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>112000</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>112000</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>116240</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>116620</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>120460</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>121420</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>127700</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>128120</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>129960</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>130860</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>135700</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>135920</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>136580</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>137140</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>137460</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>137880</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>138320</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>138320</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>139880</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>139880</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>142680</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>143240</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>152460</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>153060</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>155840</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>155940</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>157240</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>157360</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>159120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>159520</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>160640</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>162040</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>162540</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>162800</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>167760</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>167760</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>170520</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>170520</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>174420</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>174420</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>179320</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>179320</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>181320</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>181320</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>185920</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>185920</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>189180</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>189180</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>191260</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>191260</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>194140</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>194140</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>195140</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>195140</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>196260</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>196260</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>201940</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>201940</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>204260</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>204260</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>205260</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>205260</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>208420</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>208420</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>212500</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>212500</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>213500</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>213500</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>218060</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="1" t="n">
+      <c r="D79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>218060</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>221220</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>221220</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>223020</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>223020</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>225020</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>225020</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>226020</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>226020</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>227020</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>227020</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>231020</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>231020</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>233020</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>235020</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>236020</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>236020</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>237020</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>237020</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>238020</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>238020</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>241020</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>241020</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>242020</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>242020</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>243020</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>241020</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>242020</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>242020</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>243020</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>243020</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>246020</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>246020</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>249020</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>249020</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>251020</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>251020</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>252020</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>252020</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>253020</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>264020</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>271220</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>273220</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>274420</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>278420</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>279620</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>279620</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>280420</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>280420</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>282420</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>282420</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>283420</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>283420</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>287420</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>287420</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>292420</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="D107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>292420</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>293420</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>293420</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>294420</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>294420</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>299420</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="1" t="n">
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>299420</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>301420</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>301420</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>303420</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>303420</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>306420</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>306420</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>308420</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>308420</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>309420</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>309420</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>310420</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>310420</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>316420</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>316420</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>317420</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>317420</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>318420</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>318420</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>319420</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>319420</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>320420</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>320420</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>321420</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="1" t="n">
+      <c r="D122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>322420</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>326420</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>326420</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>327420</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>327420</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>332420</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>332420</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>333420</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>333420</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>334420</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>334420</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>336420</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>344420</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>348420</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>348420</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>349420</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>349420</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>353420</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>353420</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>355420</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>355420</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>357420</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>357420</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>358420</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="D134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>358420</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>360420</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>360420</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>362420</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>362420</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>363420</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>363420</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>364420</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>364420</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>365420</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>365420</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>366420</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>366420</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>371420</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>371420</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>374420</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>374420</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>376420</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>376420</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>377420</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>377420</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>378420</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>378420</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>381420</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>381420</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>383420</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>383420</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>386420</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>386420</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>388420</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>388420</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>389420</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>389420</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>391420</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>391420</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>393420</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" s="1" t="n">
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>395420</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>397420</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="D153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>397420</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>400420</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>400420</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>403420</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>403420</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>406420</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>406420</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>410420</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>410420</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>414420</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>414420</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>416420</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>416420</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>420420</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>416420</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>420420</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>420420</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>423420</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="1" t="n">
+      <c r="E162" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>420420</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>423420</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="E163" s="2"/>
+      <c r="H163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>423420</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>431420</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>431420</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>436420</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>436420</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>437420</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="1" t="n">
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>437420</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>440420</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1" t="s">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>440420</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>441420</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>441420</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>443420</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>443420</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>445420</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>445420</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>446420</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="D171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>446420</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>450420</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="D172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>450420</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>454420</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>454420</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>456420</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="D174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H174" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>454420</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>456420</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>456420</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>462420</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>462420</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>466420</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>466420</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>467420</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>467420</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>470420</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="D179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>470420</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>471420</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>471420</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>472420</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>472420</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>473420</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" s="1" t="n">
+      <c r="D182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>472420</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>473420</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="E183" s="2"/>
+      <c r="H183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>473420</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>481420</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="1" t="n">
+      <c r="D184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>481420</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>482420</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>482420</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>483420</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>483420</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>484420</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>484420</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>485420</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>485420</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>488420</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" s="1"/>
+      <c r="D189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>488420</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="2" t="n">
         <v>489420</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F190" s="1" t="s">
+      <c r="D190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>489420</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="2" t="n">
         <v>491420</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F191" s="1" t="s">
+      <c r="D191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="H191" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>491420</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="2" t="n">
         <v>493420</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>493420</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="2" t="n">
         <v>494420</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>494420</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="2" t="n">
         <v>498420</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" s="1" t="n">
+      <c r="D194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>498420</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="2" t="n">
         <v>499420</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F195" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="H195" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>499420</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="2" t="n">
         <v>501420</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>501420</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="2" t="n">
         <v>504420</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>504420</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="2" t="n">
         <v>506420</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F198" s="1" t="s">
+      <c r="D198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>506420</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="2" t="n">
         <v>507420</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>507420</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="2" t="n">
         <v>512420</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="1" t="n">
+      <c r="D200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>512420</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="2" t="n">
         <v>514420</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="D201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H201" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>514420</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="2" t="n">
         <v>515420</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>515420</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="2" t="n">
         <v>520420</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" s="1" t="n">
+      <c r="D203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>520420</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="2" t="n">
         <v>522420</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>522420</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="2" t="n">
         <v>524420</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>524420</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>526420</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>526420</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>528420</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>528420</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>532420</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>532420</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>536420</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E209" s="1"/>
+      <c r="D209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>536420</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="2" t="n">
         <v>538420</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="H210" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>538420</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="2" t="n">
         <v>539420</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>539420</v>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="2" t="n">
         <v>543420</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>543420</v>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="2" t="n">
         <v>544420</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="D213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>544420</v>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="B214" s="2" t="n">
         <v>545420</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E214" s="1" t="n">
+      <c r="D214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>545420</v>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="B215" s="2" t="n">
         <v>546420</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>546420</v>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B216" s="2" t="n">
         <v>551420</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1" t="s">
+      <c r="D216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>551420</v>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="2" t="n">
         <v>554420</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F217" s="1" t="s">
+      <c r="D217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H217" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>554420</v>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="2" t="n">
         <v>557420</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F218" s="1" t="s">
+      <c r="D218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>557420</v>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="2" t="n">
         <v>558420</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>558420</v>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="2" t="n">
         <v>559420</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F220" s="1" t="s">
+      <c r="D220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="2" t="n">
         <v>559420</v>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="2" t="n">
         <v>560420</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="1" t="n">
+      <c r="D221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="2" t="n">
         <v>560420</v>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="2" t="n">
         <v>567420</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="1"/>
+      <c r="D222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="2" t="n">
         <v>567420</v>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="2" t="n">
         <v>569420</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H223" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="2" t="n">
         <v>569420</v>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="2" t="n">
         <v>570420</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="2" t="n">
         <v>570420</v>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="2" t="n">
         <v>574420</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="2" t="n">
         <v>574420</v>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="2" t="n">
         <v>576420</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226" s="1" t="n">
+      <c r="D226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="2" t="n">
         <v>576420</v>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="2" t="n">
         <v>582420</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="1"/>
+      <c r="D227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="2" t="n">
         <v>582420</v>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="2" t="n">
         <v>584420</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1" t="s">
+      <c r="D228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H228" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="2" t="n">
         <v>584420</v>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="2" t="n">
         <v>591420</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F229" s="1" t="s">
+      <c r="D229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="2" t="n">
         <v>592420</v>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="2" t="n">
         <v>594420</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F230" s="1" t="s">
+      <c r="D230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="2" t="n">
         <v>596420</v>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="2" t="n">
         <v>600420</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" s="1" t="n">
+      <c r="D231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="2" t="n">
         <v>600420</v>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="2" t="n">
         <v>602420</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="H232" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="2" t="n">
         <v>600420</v>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="2" t="n">
         <v>602420</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F233" s="1"/>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="2" t="n">
         <v>602420</v>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="2" t="n">
         <v>606420</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" s="1" t="n">
+      <c r="D234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="2" t="n">
         <v>606420</v>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="2" t="n">
         <v>609420</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="2" t="n">
         <v>609420</v>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="2" t="n">
         <v>613420</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="2" t="n">
         <v>613420</v>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="2" t="n">
         <v>615420</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="2" t="n">
         <v>615420</v>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="2" t="n">
         <v>618420</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E238" s="1"/>
+      <c r="D238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="2" t="n">
         <v>618420</v>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="2" t="n">
         <v>621420</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E239" s="1"/>
-      <c r="F239" s="0" t="s">
+      <c r="D239" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H239" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="2" t="n">
         <v>621420</v>
       </c>
-      <c r="B240" s="1" t="n">
+      <c r="B240" s="2" t="n">
         <v>623420</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="2" t="n">
         <v>623420</v>
       </c>
-      <c r="B241" s="1" t="n">
+      <c r="B241" s="2" t="n">
         <v>624420</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241" s="1" t="n">
+      <c r="D241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="2" t="n">
         <v>628420</v>
       </c>
-      <c r="B242" s="1" t="n">
+      <c r="B242" s="2" t="n">
         <v>630420</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E242" s="1"/>
+      <c r="D242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="2" t="n">
         <v>630420</v>
       </c>
-      <c r="B243" s="1" t="n">
+      <c r="B243" s="2" t="n">
         <v>631420</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F243" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="H243" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="2" t="n">
         <v>631420</v>
       </c>
-      <c r="B244" s="1" t="n">
+      <c r="B244" s="2" t="n">
         <v>633420</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="2" t="n">
         <v>633420</v>
       </c>
-      <c r="B245" s="1" t="n">
+      <c r="B245" s="2" t="n">
         <v>637420</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="2" t="n">
         <v>643420</v>
       </c>
-      <c r="B246" s="1" t="n">
+      <c r="B246" s="2" t="n">
         <v>647420</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E246" s="1" t="n">
+      <c r="D246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="F246" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="H246" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="2" t="n">
         <v>647420</v>
       </c>
-      <c r="B247" s="1" t="n">
+      <c r="B247" s="2" t="n">
         <v>649420</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="2" t="n">
         <v>649420</v>
       </c>
-      <c r="B248" s="1" t="n">
+      <c r="B248" s="2" t="n">
         <v>650420</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="1" t="n">
+      <c r="D248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="2" t="n">
         <v>654420</v>
       </c>
-      <c r="B249" s="1" t="n">
+      <c r="B249" s="2" t="n">
         <v>658420</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" s="1"/>
+      <c r="D249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="2" t="n">
         <v>658420</v>
       </c>
-      <c r="B250" s="1" t="n">
+      <c r="B250" s="2" t="n">
         <v>660420</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="H250" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="2" t="n">
         <v>660420</v>
       </c>
-      <c r="B251" s="1" t="n">
+      <c r="B251" s="2" t="n">
         <v>667420</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F251" s="1" t="s">
+      <c r="D251" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="2" t="n">
         <v>667420</v>
       </c>
-      <c r="B252" s="1" t="n">
+      <c r="B252" s="2" t="n">
         <v>671420</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="1" t="n">
+      <c r="D252" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="H252" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="2" t="n">
         <v>671420</v>
       </c>
-      <c r="B253" s="1" t="n">
+      <c r="B253" s="2" t="n">
         <v>673420</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="2" t="n">
         <v>673420</v>
       </c>
-      <c r="B254" s="1" t="n">
+      <c r="B254" s="2" t="n">
         <v>676420</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F254" s="1" t="s">
+      <c r="D254" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="2" t="n">
         <v>676420</v>
       </c>
-      <c r="B255" s="1" t="n">
+      <c r="B255" s="2" t="n">
         <v>679420</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="2" t="n">
         <v>679420</v>
       </c>
-      <c r="B256" s="1" t="n">
+      <c r="B256" s="2" t="n">
         <v>680420</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="2" t="n">
         <v>680420</v>
       </c>
-      <c r="B257" s="1" t="n">
+      <c r="B257" s="2" t="n">
         <v>683420</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="2" t="n">
         <v>683420</v>
       </c>
-      <c r="B258" s="1" t="n">
+      <c r="B258" s="2" t="n">
         <v>687420</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="2" t="n">
         <v>687420</v>
       </c>
-      <c r="B259" s="1" t="n">
+      <c r="B259" s="2" t="n">
         <v>688420</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="2" t="n">
         <v>688420</v>
       </c>
-      <c r="B260" s="1" t="n">
+      <c r="B260" s="2" t="n">
         <v>690420</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="2" t="n">
         <v>693420</v>
       </c>
-      <c r="B261" s="1" t="n">
+      <c r="B261" s="2" t="n">
         <v>697420</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="2" t="n">
         <v>697420</v>
       </c>
-      <c r="B262" s="1" t="n">
+      <c r="B262" s="2" t="n">
         <v>698420</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game60.xlsx
+++ b/data/expt_2/raw_transcripts/game60.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="223">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">The blue thing.</t>
   </si>
   <si>
@@ -275,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Mm-hmm.</t>
@@ -771,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,6 +787,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,12 +921,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E258" activeCellId="0" sqref="E258"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E118" activeCellId="0" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -951,6 +961,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -960,10 +973,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,10 +987,10 @@
         <v>3000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +1001,10 @@
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +1015,10 @@
         <v>6000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1029,10 @@
         <v>7000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,10 +1043,10 @@
         <v>12000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +1057,10 @@
         <v>18000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,10 +1071,10 @@
         <v>21000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,10 +1085,10 @@
         <v>23000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1099,10 @@
         <v>27000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,10 +1113,10 @@
         <v>28000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,10 +1127,10 @@
         <v>29000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +1141,10 @@
         <v>30000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +1155,10 @@
         <v>32000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,10 +1169,10 @@
         <v>37000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,10 +1183,10 @@
         <v>38000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +1197,10 @@
         <v>42000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,10 +1211,10 @@
         <v>44000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,10 +1225,10 @@
         <v>46000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,10 +1239,10 @@
         <v>53000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,10 +1253,10 @@
         <v>55000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,10 +1267,10 @@
         <v>57000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,10 +1281,10 @@
         <v>58000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,10 +1295,10 @@
         <v>60000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,10 +1309,10 @@
         <v>62000</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,10 +1323,10 @@
         <v>63000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,10 +1337,10 @@
         <v>64000</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,10 +1351,10 @@
         <v>65000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,10 +1365,10 @@
         <v>66000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,10 +1379,10 @@
         <v>67000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,10 +1393,10 @@
         <v>72000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,10 +1407,10 @@
         <v>74000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,10 +1421,10 @@
         <v>77000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,10 +1435,10 @@
         <v>80000</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,10 +1449,10 @@
         <v>84000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +1463,10 @@
         <v>86000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,10 +1477,10 @@
         <v>88000</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,10 +1491,10 @@
         <v>89000</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,10 +1505,10 @@
         <v>90000</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,10 +1519,10 @@
         <v>93000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,10 +1533,10 @@
         <v>96000</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,10 +1547,10 @@
         <v>101000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,10 +1561,10 @@
         <v>106000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,10 +1575,10 @@
         <v>112000</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,10 +1589,10 @@
         <v>116240</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,10 +1603,10 @@
         <v>120460</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,10 +1617,10 @@
         <v>127700</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,10 +1631,10 @@
         <v>129960</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,10 +1645,10 @@
         <v>135700</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,10 +1659,10 @@
         <v>136580</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +1673,10 @@
         <v>137460</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,10 +1687,10 @@
         <v>138320</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,10 +1701,10 @@
         <v>139880</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,10 +1715,10 @@
         <v>142680</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1729,10 @@
         <v>152460</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,10 +1743,10 @@
         <v>155840</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,10 +1757,10 @@
         <v>157240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1771,10 @@
         <v>159120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1785,10 @@
         <v>160640</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1799,10 @@
         <v>162540</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,10 +1813,10 @@
         <v>167760</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,10 +1827,10 @@
         <v>170520</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,10 +1841,10 @@
         <v>174420</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,10 +1855,10 @@
         <v>179320</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,10 +1869,10 @@
         <v>181320</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1883,10 @@
         <v>185920</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,10 +1897,10 @@
         <v>189180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +1911,10 @@
         <v>191260</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +1925,10 @@
         <v>194140</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,10 +1939,10 @@
         <v>195140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,10 +1953,10 @@
         <v>196260</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,10 +1967,10 @@
         <v>201940</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,10 +1981,10 @@
         <v>204260</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +1995,10 @@
         <v>205260</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,10 +2009,10 @@
         <v>208420</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,10 +2023,10 @@
         <v>212500</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,7 +2037,7 @@
         <v>213500</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,10 +2048,10 @@
         <v>218060</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2065,10 @@
         <v>221220</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2079,10 @@
         <v>223020</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,16 +2093,19 @@
         <v>225020</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2116,10 @@
         <v>226020</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,13 +2130,16 @@
         <v>227020</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,10 +2150,10 @@
         <v>231020</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,13 +2164,13 @@
         <v>233020</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,13 +2181,13 @@
         <v>236020</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,13 +2198,13 @@
         <v>237020</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,10 +2215,10 @@
         <v>238020</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,10 +2229,10 @@
         <v>241020</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,13 +2243,16 @@
         <v>242020</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,13 +2263,16 @@
         <v>243020</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,13 +2283,16 @@
         <v>242020</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,13 +2303,16 @@
         <v>243020</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,10 +2323,10 @@
         <v>246020</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,10 +2337,10 @@
         <v>249020</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,10 +2351,10 @@
         <v>251020</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2365,10 @@
         <v>252020</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,13 +2379,16 @@
         <v>253020</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,10 +2399,10 @@
         <v>271220</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,13 +2413,16 @@
         <v>274420</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,13 +2433,16 @@
         <v>279620</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,13 +2453,16 @@
         <v>280420</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,13 +2473,16 @@
         <v>282420</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2493,10 @@
         <v>283420</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,10 +2507,10 @@
         <v>287420</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,13 +2521,13 @@
         <v>292420</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,10 +2538,10 @@
         <v>293420</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,10 +2552,10 @@
         <v>294420</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,10 +2566,10 @@
         <v>299420</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>1</v>
@@ -2537,13 +2583,16 @@
         <v>301420</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,13 +2603,16 @@
         <v>303420</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,16 +2623,19 @@
         <v>306420</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,10 +2646,13 @@
         <v>308420</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,10 +2663,10 @@
         <v>309420</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,13 +2677,13 @@
         <v>310420</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2694,10 @@
         <v>316420</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,10 +2708,10 @@
         <v>317420</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,10 +2722,10 @@
         <v>318420</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,13 +2736,13 @@
         <v>319420</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,13 +2753,13 @@
         <v>320420</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,13 +2770,16 @@
         <v>321420</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,14 +2790,17 @@
         <v>326420</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,13 +2811,16 @@
         <v>327420</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,10 +2831,10 @@
         <v>332420</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,13 +2845,13 @@
         <v>333420</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,16 +2862,19 @@
         <v>334420</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,13 +2885,16 @@
         <v>336420</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,14 +2904,17 @@
       <c r="B129" s="2" t="n">
         <v>348420</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>119</v>
+      <c r="C129" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,10 +2925,10 @@
         <v>349420</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,10 +2939,10 @@
         <v>353420</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,10 +2953,10 @@
         <v>355420</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2967,10 @@
         <v>357420</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,13 +2981,13 @@
         <v>358420</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +2998,10 @@
         <v>360420</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +3012,10 @@
         <v>362420</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,10 +3026,10 @@
         <v>363420</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,10 +3040,10 @@
         <v>364420</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,10 +3054,10 @@
         <v>365420</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,13 +3068,13 @@
         <v>366420</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,13 +3085,13 @@
         <v>371420</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3102,10 @@
         <v>374420</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,10 +3116,10 @@
         <v>376420</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,10 +3130,16 @@
         <v>377420</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,10 +3150,16 @@
         <v>378420</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3170,16 @@
         <v>381420</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,10 +3190,13 @@
         <v>383420</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,10 +3207,10 @@
         <v>386420</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3221,10 @@
         <v>388420</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,10 +3235,13 @@
         <v>389420</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,10 +3252,10 @@
         <v>391420</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +3266,10 @@
         <v>393420</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>3</v>
@@ -3183,13 +3283,13 @@
         <v>397420</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,14 +3300,17 @@
         <v>400420</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,10 +3321,10 @@
         <v>403420</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3335,10 @@
         <v>406420</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3349,10 @@
         <v>410420</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,16 +3363,19 @@
         <v>414420</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,13 +3386,16 @@
         <v>416420</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3406,10 @@
         <v>420420</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3420,10 @@
         <v>420420</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,13 +3434,16 @@
         <v>423420</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3454,10 @@
         <v>423420</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E163" s="2"/>
       <c r="H163" s="2"/>
@@ -3358,10 +3470,10 @@
         <v>431420</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3484,10 @@
         <v>436420</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3498,10 @@
         <v>437420</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>5</v>
@@ -3403,14 +3515,17 @@
         <v>440420</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,10 +3536,10 @@
         <v>441420</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +3550,10 @@
         <v>443420</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,10 +3564,10 @@
         <v>445420</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,13 +3578,16 @@
         <v>446420</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,13 +3598,16 @@
         <v>450420</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,10 +3618,10 @@
         <v>454420</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,16 +3632,19 @@
         <v>456420</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,13 +3655,13 @@
         <v>456420</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3672,10 @@
         <v>462420</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,13 +3686,16 @@
         <v>466420</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,10 +3706,10 @@
         <v>467420</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,13 +3720,13 @@
         <v>470420</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,13 +3737,13 @@
         <v>471420</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,10 +3754,10 @@
         <v>472420</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,13 +3768,16 @@
         <v>473420</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +3788,10 @@
         <v>473420</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E183" s="2"/>
       <c r="H183" s="2"/>
@@ -3674,10 +3804,10 @@
         <v>481420</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>7</v>
@@ -3691,10 +3821,10 @@
         <v>482420</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,10 +3835,13 @@
         <v>483420</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,14 +3852,17 @@
         <v>484420</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,10 +3873,10 @@
         <v>485420</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,10 +3887,10 @@
         <v>488420</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -3766,13 +3902,16 @@
         <v>489420</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,16 +3922,19 @@
         <v>491420</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,10 +3945,10 @@
         <v>493420</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,10 +3959,10 @@
         <v>494420</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,10 +3973,10 @@
         <v>498420</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E194" s="2" t="n">
         <v>8</v>
@@ -3848,16 +3990,19 @@
         <v>499420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,10 +4013,10 @@
         <v>501420</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,10 +4027,10 @@
         <v>504420</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,13 +4041,13 @@
         <v>506420</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,10 +4058,10 @@
         <v>507420</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,16 +4072,19 @@
         <v>512420</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,16 +4095,19 @@
         <v>514420</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,10 +4118,10 @@
         <v>515420</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,10 +4132,10 @@
         <v>520420</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203" s="2" t="n">
         <v>10</v>
@@ -3998,10 +4149,13 @@
         <v>522420</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,10 +4166,10 @@
         <v>524420</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,10 +4180,10 @@
         <v>526420</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,10 +4194,13 @@
         <v>528420</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,10 +4211,13 @@
         <v>532420</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,10 +4228,10 @@
         <v>536420</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E209" s="2"/>
     </row>
@@ -4083,16 +4243,19 @@
         <v>538420</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4266,10 @@
         <v>539420</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,10 +4280,10 @@
         <v>543420</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,13 +4294,13 @@
         <v>544420</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,10 +4311,10 @@
         <v>545420</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E214" s="2" t="n">
         <v>11</v>
@@ -4165,10 +4328,10 @@
         <v>546420</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,14 +4342,17 @@
         <v>551420</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,16 +4363,19 @@
         <v>554420</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,13 +4386,13 @@
         <v>557420</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,10 +4403,10 @@
         <v>558420</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,13 +4417,13 @@
         <v>559420</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,10 +4434,10 @@
         <v>560420</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" s="2" t="n">
         <v>12</v>
@@ -4282,10 +4451,10 @@
         <v>567420</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222" s="2"/>
     </row>
@@ -4297,16 +4466,19 @@
         <v>569420</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,10 +4489,10 @@
         <v>570420</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,10 +4503,16 @@
         <v>574420</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,10 +4523,10 @@
         <v>576420</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E226" s="2" t="n">
         <v>13</v>
@@ -4362,10 +4540,10 @@
         <v>582420</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E227" s="2"/>
     </row>
@@ -4377,17 +4555,20 @@
         <v>584420</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,13 +4579,13 @@
         <v>591420</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,13 +4596,13 @@
         <v>594420</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,10 +4613,10 @@
         <v>600420</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>14</v>
@@ -4449,16 +4630,19 @@
         <v>602420</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4653,10 @@
         <v>602420</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F233" s="2"/>
     </row>
@@ -4484,10 +4668,10 @@
         <v>606420</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E234" s="2" t="n">
         <v>15</v>
@@ -4501,10 +4685,10 @@
         <v>609420</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,10 +4699,13 @@
         <v>613420</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,10 +4716,13 @@
         <v>615420</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,10 +4733,10 @@
         <v>618420</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E238" s="2"/>
     </row>
@@ -4558,17 +4748,20 @@
         <v>621420</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,10 +4772,10 @@
         <v>623420</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,10 +4786,10 @@
         <v>624420</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E241" s="2" t="n">
         <v>16</v>
@@ -4610,10 +4803,10 @@
         <v>630420</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -4625,16 +4818,19 @@
         <v>631420</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,10 +4841,10 @@
         <v>633420</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,10 +4855,10 @@
         <v>637420</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,19 +4869,22 @@
         <v>647420</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E246" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,10 +4895,10 @@
         <v>649420</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,10 +4909,10 @@
         <v>650420</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E248" s="2" t="n">
         <v>18</v>
@@ -4727,10 +4926,10 @@
         <v>658420</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E249" s="2"/>
     </row>
@@ -4742,16 +4941,19 @@
         <v>660420</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,13 +4964,16 @@
         <v>667420</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,19 +4984,22 @@
         <v>671420</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E252" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,10 +5010,10 @@
         <v>673420</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,13 +5024,13 @@
         <v>676420</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,10 +5041,10 @@
         <v>679420</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +5055,10 @@
         <v>680420</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,10 +5069,10 @@
         <v>683420</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,10 +5083,10 @@
         <v>687420</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,10 +5097,10 @@
         <v>688420</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,10 +5111,10 @@
         <v>690420</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,10 +5125,10 @@
         <v>697420</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,10 +5139,10 @@
         <v>698420</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game60.xlsx
+++ b/data/expt_2/raw_transcripts/game60.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="223">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -777,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -787,6 +787,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,9 +928,9 @@
   <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E118" activeCellId="0" sqref="E118"/>
+      <selection pane="bottomLeft" activeCell="F216" activeCellId="0" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2370,6 +2374,9 @@
       <c r="D98" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F98" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
@@ -2904,7 +2911,7 @@
       <c r="B129" s="2" t="n">
         <v>348420</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4332,6 +4339,9 @@
       </c>
       <c r="D215" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/expt_2/raw_transcripts/game60.xlsx
+++ b/data/expt_2/raw_transcripts/game60.xlsx
@@ -463,7 +463,7 @@
     <t xml:space="preserve">I'm wondering. Maybe goose?</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe goose</t>
+    <t xml:space="preserve">goose</t>
   </si>
   <si>
     <t xml:space="preserve">This?</t>
@@ -777,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,10 +791,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,9 +924,9 @@
   <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F216" activeCellId="0" sqref="F216"/>
+      <selection pane="bottomLeft" activeCell="H158" activeCellId="0" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,7 +2370,7 @@
       <c r="D98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2911,7 +2907,7 @@
       <c r="B129" s="2" t="n">
         <v>348420</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4340,7 +4336,7 @@
       <c r="D215" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F215" s="4" t="s">
+      <c r="F215" s="3" t="s">
         <v>84</v>
       </c>
     </row>
